--- a/automationframework/automationserver/automationtestcase/web_function_case.xlsx
+++ b/automationframework/automationserver/automationtestcase/web_function_case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\Project\Python_GitProject\ApplicationPerformance\webautomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\Project\AutomationFramework\automationframework\automationserver\automationtestcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="155">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -829,6 +829,10 @@
   </si>
   <si>
     <t>pageup_textname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kw</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1272,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1285,7 +1289,7 @@
     <col min="4" max="4" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,34 +1306,30 @@
         <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1337,18 +1337,32 @@
         <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>143</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="6" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2713,13 +2727,13 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="55.5" customWidth="1"/>
+    <col min="2" max="2" width="88.75" customWidth="1"/>
     <col min="3" max="3" width="24.125" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
